--- a/Data/04_Klima og ressursforvaltning/Karbonrike arealer/Inndata/landareal_09280_20251024-112104.xlsx
+++ b/Data/04_Klima og ressursforvaltning/Karbonrike arealer/Inndata/landareal_09280_20251024-112104.xlsx
@@ -437,7 +437,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
